--- a/Edureka_top categories.xlsx
+++ b/Edureka_top categories.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/perecharla-divya-sai_perecharla-divya-sai_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{1EFB0D29-BCEF-4A59-95F1-A7E35A135C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD374FAF-515F-400E-99C4-E42DE995C994}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="8_{1EFB0D29-BCEF-4A59-95F1-A7E35A135C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6071F36F-38C4-440B-8F88-851ED5B86BB0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6A37D0D2-6704-4A46-B606-5FA79B18526C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{6A37D0D2-6704-4A46-B606-5FA79B18526C}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
     <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
+    <sheet name="RTM" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="173">
   <si>
     <t>Issue Type</t>
   </si>
@@ -98,16 +100,10 @@
     <t>REQ_Edureka_Discover_Top_Categories_01</t>
   </si>
   <si>
-    <t>TS_Edureka_Dicover_Top_Categories_01</t>
-  </si>
-  <si>
     <t>TS_Edureka_Discover_Top_Categories_02</t>
   </si>
   <si>
     <t>REQ_Edureka_Discover_Top_Categories_02</t>
-  </si>
-  <si>
-    <t>TS_Edureka_Dicover_Top_Categories_02</t>
   </si>
   <si>
     <t>Story 2</t>
@@ -505,12 +501,104 @@
   <si>
     <t>Assigned To</t>
   </si>
+  <si>
+    <t>BR_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_ID	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_ID	</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION SUMMARY</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>DF_Dicover_Top_Categories_01</t>
+  </si>
+  <si>
+    <t>Discover_Top_Categories 
+"Brochure Download" form</t>
+  </si>
+  <si>
+    <t>No error is displayed for phone field 
+ 9 digits are entered</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>BR_Discover_Top_Categories_01</t>
+  </si>
+  <si>
+    <t>TR_Edureka_Discover_Top_Categories_01</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>TR_Edureka_Discover_Top_Categories_02</t>
+  </si>
+  <si>
+    <t>TC_Edureka_Discover_Top_Categories_11</t>
+  </si>
+  <si>
+    <t>TC_Edureka_Discover_Top_Categories_12</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edureka	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover_Top_Categories 	</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,8 +635,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +687,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,11 +723,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,9 +776,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,8 +790,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,47 +1150,47 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="95.08984375" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1028,37 +1201,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1070,13 +1243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D420842-9654-4836-AC74-8B1ABB8E61FB}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" customWidth="1"/>
     <col min="3" max="3" width="89.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
@@ -1084,35 +1257,35 @@
     <col min="6" max="6" width="45.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="130.5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1121,18 +1294,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="116">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1141,16 +1314,16 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
@@ -1163,11 +1336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0443F3C6-6CFB-474F-86A9-7B1CB3531999}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="34.26953125" customWidth="1"/>
@@ -1181,486 +1354,486 @@
     <col min="11" max="11" width="53.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="58">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="72.5">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.5">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I9" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I11" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="29">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="43.5">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="G16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -1671,42 +1844,440 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F75184-50DB-4F07-ACE8-7E3F13A5155D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.36328125" customWidth="1"/>
     <col min="5" max="5" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{350CC00C-7578-48C1-BFC3-C035A5299802}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F643AA6-A1B0-4F19-AFEB-EDB395CF050C}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="32.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="17" customFormat="1">
+      <c r="A1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC087A8D-1D97-4CF6-8E23-01B40D8D3624}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="31">
       <c r="A1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H3" s="19">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
